--- a/finetuning/it_datasets/it_dataset/it_la goulette_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_la goulette_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe, check out Melody Cafe located at R8G6+7F3 Melody Cafe, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe services to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/Melody+Caf%C3%A9/data=!4m7!3m6!1s0x12fd4b0bc4a3ed97:0x253da55a526d026e!8m2!3d36.8256335!4d10.3111769!16s%2Fg%2F11rtc8r1_l!19sChIJl-2jxAtL_RIRbgJtUlqlPSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 242 995.</t>
+          <t>Melody Café is a local café located in La Goulette, Tunisia. This café offers its customers a wide range of food options. It also has extended work hours, from 7:00 am to 11:00 pm. Melody Café is closed on Fridays and Saturdays.</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a cup of coffee with a bite to eat, check out Let's Drive Coffee Shop located at 1 Av. Hedi Chaker, La Goulette 2060.
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 36.815875813745, 10.303725297704. For more details, visit their website or call them at 98 372 509.</t>
+          <t>Let's Drive Coffee Shop is located in La Goulette, Tunisia, at coordinates (36.815875813745, 10.303725297704). It is open from 6AM to 10PM and offers a variety of coffee and tea drinks. The shop is also a popular spot for breakfast and lunch, with a menu that includes sandwiches, salads, and pastries.</t>
         </is>
       </c>
     </row>
@@ -866,9 +864,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Restaurant Djerbien The House - lHwsh located at 43 Av. Franklin Roosevelt, La Goulette.
-This popular destination offers a range of Restaurant options and is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. 
-It's open during these hours: 12:30-22:30, but closed on lundis. To get there, use these GPS coordinates: 36.820006583268, 10.308868098217. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a highly-rated restaurant located in La Goulette, Tunisia, boasting a 4.3-star rating. It specializes in traditional Tunisian cuisine and offers a cozy ambiance. The menu includes a range of dishes, including couscous, succulent meats, and flavorful breads. The restaurant is conveniently situated at 43 Av. Franklin Roosevelt, with coordinates (36.820006583268, 10.308868098217).</t>
         </is>
       </c>
     </row>
@@ -967,7 +963,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great bistro, check out Vin sur Vin located at 20 Rue Ali Bach. This top-rated destination is perfect for Bistro lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website or call them at 53 270 000.</t>
+          <t>Vin sur Vin is a popular bistro located at 20 Rue Ali Bach in La Goulette, with a rating of 4.0 based on 81 reviews. It offers a cozy atmosphere with a focus on wine and cheese pairings, attracting locals and tourists alike. Situated in the heart of La Goulette, the bistro is easily accessible and surrounded by other attractions in the area. With its reasonable prices and a diverse menu, Vin sur Vin caters to a wide range of preferences, making it an ideal spot for casual dining or social gatherings.</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great dining experience, check out Restaurant Waywa located at R884+R86 Restaurant Waywa, Av. Franklin Roosevelt, La Goulette. This top-rated restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.8171268, 10.3054433. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Waywa/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x9e2272ece5937e5a!8m2!3d36.8170356!4d10.3057719!16s%2Fg%2F11gbnvdwz3!19sChIJaWvy_RxL_RIRWn6T5exyIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 524 477.</t>
+          <t>Restaurant Waywa, a highly rated (4.2/5) eatery in La Goulette, Tunis, is open 24 hours a day. The restaurant specializes in seafood dishes, with "poisson" and "prix" being among the most frequently mentioned keywords in customer reviews. Conveniently located near the intersection of R884 and R86, Restaurant Waywa offers a dining experience that combines delicious food, a welcoming atmosphere, and prime accessibility.</t>
         </is>
       </c>
     </row>
@@ -1177,9 +1173,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out restaurant la paella located at restaurant la paella, casino, La Goulette 2060. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 12:00-01:00, but closed on [ ]. To get there, use these GPS coordinates: 36.8220926, 10.3112338. To contact, call them at 21 171 717.</t>
+          <t>Restaurant "La Paella" is a popular dining destination in La Goulette, known for its delicious tapas and vibrant atmosphere. It boasts a high rating of 4.4 based on 26 reviews and features authentic Mediterranean cuisine in a charming setting.</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1272,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated dining destination, visit Leblebi chez Naceur (lblby) located at 35 Av. Franklin Roosevelt, La Goulette. This restaurant serves up a range of delectable dishes, earning it a well-deserved rating of 4.5. With rave reviews highlighting its value for money, Leblebi chez Naceur (lblby) is a must-try spot. It's open from 12:00-05:00 during the week. For more details, visit their website at https://www.google.com/maps/place/Leblebi+chez+Naceur+%28%D9%84%D8%A8%D9%84%D8%A7%D8%A8%D9%8A%29%E2%80%AD/data=!4m7!3m6!1s0x12fd4b4843e854cb:0xd4b14ca459f85841!8m2!3d36.8192715!4d10.3079783!16s%2Fg%2F11n0697v0r!19sChIJy1ToQ0hL_RIRQVj4WaRMsdQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>Leblebi chez Naceur, a restaurant located at 35 Av. Franklin Roosevelt in La Goulette, Tunisia, specializes in traditional Tunisian cuisine. With a rating of 4.5 out of 5 based on 26 reviews, it's a popular spot for locals and tourists alike. The restaurant is open from 12:00 pm to 5:00 pm and is known for its affordable prices and delicious food.</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1379,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe experience, check out Cafe Goletta located at R8F7+5FV Cafe Goletta, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 36.81825, 10.3052. For more details, visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ or call them at 21 759 284.</t>
+          <t>Cafe Goletta, located in La Goulette (Tunisia) with the coordinates (36.81825, 10.3052), is a highly-rated cafe with a 4.4 rating based on 21 reviews. The cafe is open from 7:00 AM to 11:00 PM and offers a range of services. Visit their website at https://www.facebook.com/Caf%C3%A9-Goletta-1355210237887652/ for more information.</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1482,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Cafe servant des chocolats chauds, check out Sam'S BEACH LA GOULETTE at 30 Av. De La Republique, La Goulette. This must-visit spot offers a range of categories including Cafe servant des chocolats chauds, Creperie, and Salon de the and has a rating of 4.3. It's open during these hours: 07:00-20:30, but closed on . To get there use these GPS coordinates: (36.816176388793, 10.306199300245) or call them at 24 170 701 for more details.</t>
+          <t>Sam's Beach La Goulette is a popular cafe located on 30 Av. De La Republique in La Goulette. It offers a variety of hot chocolates, crepes, and teas, and has a rating of 4.3 out of 5 stars on Google. The cafe is open from 7:00am to 8:30pm daily, and is closed on Sundays. It has a convenient location near the beach and offers a relaxing atmosphere with friendly service.</t>
         </is>
       </c>
     </row>
@@ -1591,9 +1585,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Chicago La Goulette located at 2 Av. Franklin Roosevelt, La Goulette 2060. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.816262806215, 10.304961376965. For more details, visit their website at https://www.google.com/maps/place/Chicago+La+Goulette/data=!4m7!3m6!1s0x12fd4b02ad299cd7:0x90c086a5d810b040!8m2!3d36.8170692!4d10.3053236!16s%2Fg%2F11gdz49_jk!19sChIJ15wprQJL_RIRQLAQ2KWGwJA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 502 249.</t>
+          <t>Chicago La Goulette is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood and meats. The restaurant is located at 2 Av. Franklin Roosevelt and is open from 12:00 to 00:00. It is closed on Sundays. The restaurant has 16 reviews and an average rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1688,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in la goulette seeking a delicious meal, be sure to visit Restaurant La Guitoune situated at 17 Av. Franklin Roosevelt, La Goulette. This highly rated restaurant, with a 4.6 rating, is a haven for Restaurant enthusiasts. It offers a wide variety of options to choose from, guaranteeing a satisfying dining experience. The restaurant's hours of operation are from 11:00-23:00, except on days when it's closed. To get to the restaurant, utilize the GPS coordinates (36.818333303937, 10.307128182755). For more information, feel free to contact them at 24 813 503.</t>
+          <t>Restaurant La Guitoune, a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 4.6 stars on Google reviews, is a great place to enjoy a meal. Open from 11:00 AM to 11:00 PM, Restaurant La Guitoune offers a variety of dishes and is known for its excellent service. With its convenient location at 17 Av. Franklin Roosevelt, La Goulette, and its phone number 24 813 503, it's easy to find and contact the restaurant for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1791,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Restaurant Le Cordoue located at 13 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:30, but closed on []. To get there, use these GPS coordinates: 36.8170198, 10.3057291. For more details, visit their website or call them at 71 735 476.</t>
+          <t>Restaurant Le Cordoue is a renowned dining destination located at 13 Av. Franklin Roosevelt in La Goulette. This esteemed establishment boasts a rating of 4.4 stars based on the experiences of its satisfied patrons. Open daily from 11 am to 11:30 pm, the restaurant invites diners to savor its culinary delights in a warm and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1898,8 +1890,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Mazaj cafe located at R8C6+V7Q Mazaj cafe, Av. Pasteur, La Goulette.
-This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 36.823081683105, 10.30961397621.</t>
+          <t>Mazaj Cafe is a cafe located in La Goulette, Tunis, Tunisia. The cafe has a 4.1-star rating on Google and is open from 6:00 AM to 1:00 AM. Mazaj Cafe serves coffee, tea, and pastries. The cafe is located at the following coordinates: (36.823081683105, 10.30961397621).</t>
         </is>
       </c>
     </row>
@@ -2002,7 +1993,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Cafe, check out EL FIRMA COFFEE SHOP located at 90 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 36.822835810866, 10.31136096004. For more details, visit their website at https://www.google.com/maps/place/EL+FIRMA+COFFEE+SHOP/data=!4m7!3m6!1s0x12fd4b7b42fa6b65:0x52074b6263fc88f4!8m2!3d36.8228658!4d10.3116849!16s%2Fg%2F11jpp056q5!19sChIJZWv6QntL_RIR9Ij8Y2JLB1I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 544 925.</t>
+          <t>EL FIRMA COFFEE SHOP is located in La Goulette (Tunisia) at the address 90 Av. Franklin Roosevelt. This coffee shop is open from 9 am to 1 am and offers a rating of 4.8 out of 5. You can contact them by phone at 99 544 925.</t>
         </is>
       </c>
     </row>
@@ -2105,9 +2096,8 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a satisfying meal, check out quedamos located at R884+R47 quedamos, Av. Franklin Roosevelt, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.820285616825, 10.309149813982. For more details, visit their website at https://www.google.com/maps/place/quedamos/data=!4m7!3m6!1s0x12fd4b58daf8083f:0x9e5f8d8c42d035de!8m2!3d36.8170461!4d10.3053106!16s%2Fg%2F11hz2kzxyz!19sChIJPwj42lhL_RIR3jXQQoyNX54?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 462 516.</t>
+          <t>**Quedamos** is a 4.5-star rated restaurant located in La Goulette, Tunis.
+With 8 reviews, Quedamos offers a cozy dining experience on Avenue Franklin Roosevelt. It opens from 11.00 AM - 11.00 PM every day and is accessible via phone at +216 29 462 516.</t>
         </is>
       </c>
     </row>
@@ -2210,9 +2200,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delightful Cafe, head over to Melody Cafe situated at R8G6+7F3, La Goulette. 
-This highly-rated spot boasts a rating of 4.9 and is open from 07:00-23:00 all days of the week. 
-For further details, call them at 53 242 995.</t>
+          <t>Melody Cafe is a cafe located in La Goulette, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is open from 7:00 am to 11:00 pm, and is closed on Sundays. Melody Cafe is located at the coordinates 36.8171992, 10.3035367.</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2299,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out La Corniche located at R884+MF6 La Corniche, Rue El Amir Abdelkader, La Goulette. This restaurant is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on [not provided]. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at [not provided] or call them at [not provided].</t>
+          <t>La Corniche is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located on the waterfront, and it offers stunning views of the Mediterranean Sea. La Corniche is highly rated by its customers, and it is a popular destination for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2398,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great place to sip on some tea, head to Astoria Coffee on Av. Franklin Roosevelt. This top-rated teahouse offers a cozy ambiance and a wide range of teas to choose from. With a rating of 4.2, it's a must-visit spot for tea lovers. It's open from 07:00-01:00 daily. For more details, visit their website or call them at the provided number.</t>
+          <t>Astoria Coffee, located at the coordinates (36.821202134027, 10.309845129925) in La Goulette, Tunisia, is a highly-rated teahouse (4.2 stars from 5 reviews) that is open weekdays from 07:00 to 01:00. The teahouse is known for its warm and welcoming atmosphere and offers a variety of teas, coffees, and pastries.</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2501,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated cafe, check out Salon De The Casablanca located at R895+J4F Salon De The Casablanca, Av. Franklin Roosevelt, La Goulette. This destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 07:15-01:00. To get there, use these GPS coordinates: 36.821202134027, 10.309845129925. For more details, visit their website or call them at 22 700 609.</t>
+          <t>Located in La Goulette, at the coordinates (36.821202134027, 10.309845129925), Salon De The Casablanca is a cafe with a 4.4-star rating. It's open from 7:15 AM to 1:00 AM, every day of the week.</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2600,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a great cafe experience, check out Istanbul Cafe located at R882+572 Residence Asma, Boulevard, Av. du 1er Juin 1955. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.814552814786, 10.301428102672.</t>
+          <t>Istanbul Cafe, located in La Goulette, is a cafe with a rating of 4.3 stars based on 3 reviews. It is open from 6:00 AM to midnight, and offers a variety of services, including food and drinks. The cafe is located at 36.814552814786 latitude and 10.301428102672 longitude.</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2699,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Cafe, Salon de the Massaya is the place to be! Located at R8F5+HX2 Salon de the Massaya, Casino, La Goulette, this cafe is a must-visit spot for all cafe lovers. Open from 05:00-00:00, this destination offers a range of Cafe options to choose from, ensuring a memorable experience. With a rating of 4.7, it's a spot you wouldn't want to miss. For more details, visit their website at  or call them at</t>
+          <t>Nestled in La Goulette, Salon de the Massaya is a must-visit place for coffee enthusiasts. Boasting a 4.7 rating based on 3 reviews, this café serves tantalizing coffee and delectable treats to its patrons. With its opening hours extending from 5 AM to midnight, locals and tourists alike can enjoy a warm cuppa at their convenience. Additionally, Salon de the Massaya's precise geolocation at (36.8223204, 10.3085314) makes it easy to locate and visit.</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2806,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great cafe, check out Cafe amine la goulette located at 35 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 09:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.852658203269, 10.261756773229. For more details, visit their website at https://m.facebook.com/Caf%C3%A9-Amine-la-goulette-112366092223467/ or call them at 51 200 010.</t>
+          <t>Cafe amine la goulette is a cafe located in la goulette, Tunisia. It is open from 09:00 to 20:00 from Monday to Saturday and is closed on Sundays. It is rated 4.5 stars on Google and has 2 reviews. It has a featured image and a facebook page. The cafe offers a variety of food and drinks, and is located at 35 Av. Habib Bourghuiba, La Goulette.</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2909,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Cafe REX La Goulette located at 54 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-20:00. To get there, use these GPS coordinates: 36.81941339598, 10.306506329359. For more details, visit their website at https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https://m.facebook.com/pages/category/Community/Caf%25C3%25A9-Cin%25C3%25A9ma-Rex-La-Goulette-1607397716187985/%3Flocale2%3Dfr_CA&amp;ved=2ahUKEwiesv27o9DvAhWKO-wKHS8YAHwQFjARegQILBAC&amp;usg=AOvVaw0iWepm5TLcNJ0ajlwDBf8A&amp;cshid=1616841424584</t>
+          <t>Located in La Goulette, Cafe REX is a cozy spot that serves a variety of beverages and snacks. Its convenient location at 54 Av. Habib Bourghuiba makes it easy to find, and it stays open from 5 AM to 8 PM for your convenience. Cafe REX is highly rated by customers, with an average rating of 5.0 out of 5. It offers a welcoming ambiance and a friendly owner who will make sure you have a pleasant experience.</t>
         </is>
       </c>
     </row>
@@ -3020,9 +3008,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delightful Cafe, visit Cafe Yasmine at 45-51 Av. Habib Bourghuiba, La Goulette. 
-This highly-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-21:00. To get there, use these GPS coordinates: 36.854049683015, 10.260930317576. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Yasmine/data=!4m7!3m6!1s0x12fd4ba30a721033:0xcff5c35ba4f0601c!8m2!3d36.8213647!4d10.3078726!16s%2Fg%2F11h3kbjf7x!19sChIJMxByCqNL_RIRHGDwpFvD9c8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Yasmine is located in La Goulette, Tunisia. It is a popular cafe that serves a variety of drinks and snacks. The cafe is located at 36.854049683015, 10.260930317576 and is open from 07:00-21:00.</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3111,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Cafe, head to Cafe des delices at 57 Av. Mohamed 5, La Goulette. This top-rated spot has a rating of 5.0 and offers a cozy atmosphere perfect for coffee lovers. It's open daily from 06:00-00:00, so you can enjoy your favorite beverages whenever you like.</t>
+          <t>Cafe des delices is a cafe located at 57 Av. Mohamed 5, La Goulette, Tunisia. It is open from 6:00 AM to 12:00 AM and is rated 5.0 out of 5 stars on Google. It offers a wide variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe also has a friendly staff and a comfortable atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3214,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated cafe, check out Cafe Baba Azizi La Goulette located at 14 Av. Habib Bourghuiba, La Goulette. This cafe is a must-visit spot for cafe lovers, with a rating of 5.0. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 36.852326615179, 10.261675720225. For more details, call them at 20 335 001.</t>
+          <t>Cafe Baba Azizi La Goulette is a cafe located in La Goulette, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 14 Av. Habib Bourghuiba, La Goulette and can be contacted at 20 335 001.</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3313,17 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in **La Goulette** and looking for a top-rated cafe experience, head to **qhw@ 'm klthwm** located at **28 Av. De La Republique**. This must-visit spot offers a cozy ambiance with a rating of **5.0**. It's open **24 hours a day**, so you can enjoy your favorite coffee or tea anytime. To get there, use these GPS coordinates: **36.818358216581, 10.308094524487**.</t>
+          <t>**qhw@ 'm klthwm**
+**Location:**
+* Address: qhw@ 'm klthwm, 28 Av. De La Republique, La Goulette 2060.
+**Coordinates:**
+* Lat: 36.818358216581, Lon: 10.308094524487
+**Category:**
+* Cafe
+**Features:**
+* 24-hour operation
+**Reviews:**
+* 5.0-star rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3418,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in la goulette, Cafe Monique is a must-visit spot for Cafe lovers. Located at R895+XJF Cafe Monique, Av. De La Republique, La Goulette, this top-rated destination offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Monique/data=!4m7!3m6!1s0x12fd4b0128dec985:0x600855e42906a856!8m2!3d36.8198219!4d10.3089017!16s%2Fg%2F11svzrc0bw!19sChIJhcneKAFL_RIRVqgGKeRVCGA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Monique is a cafe situated in La Goulette, Tunisia, on Av. De La Republique. It offers a variety of cafe items. It's located at the coordinates (36.815462789831, 10.305610962712).</t>
         </is>
       </c>
     </row>
@@ -3513,9 +3509,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Lella Garbia located at 019 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.818619210654, 10.307419872986. For more details, visit their website at https://www.google.com/maps/place/Lella+Garbia/data=!4m7!3m6!1s0x12fd4bd69039e49d:0x400469d050c30b14!8m2!3d36.8187977!4d10.3074993!16s%2Fg%2F11vc366q3j!19sChIJneQ5kNZL_RIRFAvDUNBpBEA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Lella Garbia** is a highly-rated cafe located in La Goulette with a focus on coffee and other beverages. The cafe is easily accessible and conveniently located in the heart of the city. With a 5.0 rating and positive reviews, Lella Garbia is well-received by visitors and locals alike.</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3612,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a good Restaurant, check out La Mer located at R8C6+F25 La Mer, La Goulette. This top-rated destination is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00, and closed on . To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, call them at 21 644 611.</t>
+          <t>Discover La Mer, located in La Goulette (36.8212687, 10.310061), a renowned restaurant offering an array of culinary delights. With a rating of 3.1 based on 232 reviews, La Mer is open daily from 12:00-00:00, offering a special focus on seafood dishes.</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3715,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Restaurant, check out La Mer located at  R8C6+F25 La Mer, La Goulette. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, visit their website at  or call them at 21 644 611.</t>
+          <t>La Mer is a restaurant in La Goulette, Tunisia, with a rating of 3.1 out of 5 based on 232 reviews. It is located at coordinates (36.8212687, 10.310061) and is open from 12:00 PM to 00:00 AM every day. The restaurant serves a variety of dishes, including seafood, couscous, and grilled meats. It also has a terrace with views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3810,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Port La Goulette located at Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Port La Goulette is a port in La Goulette, Tunisia, located at coordinates (36.8211832, 10.3080813). As a maritime port, it offers services such as customs, police, tourism, and more. Despite receiving mixed reviews, it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3905,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated tourist attraction, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. This popular spot is known for its stunning views and offers a variety of activities to choose from. With a rating of 4.5, it's a must-visit destination. To get there, you can use the GPS coordinates: 36.818369309115, 10.306994299159.</t>
+          <t>La Goulette is a charming tourist destination located in the city of La Goulette, Tunisia. With a rating of 4.5 out of 5 stars from 51 reviews, it offers a variety of attractions, including a picturesque beach and a lively atmosphere. The featured image showcases a stunning panoramic view of the area, highlighting its coastal beauty. Located at 13 Av. Franklin Roosevelt, La Goulette is easily accessible and provides visitors with an unforgettable experience filled with history, culture, and natural wonders.</t>
         </is>
       </c>
     </row>
@@ -4014,9 +4008,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Poisson D'argent located at 41 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for Restaurant de fruits de mer lovers and offers a range of Restaurant de fruits de mer to choose from. 
-With a rating of 3.6, it's a must-visit spot. It's open during these hours: 12:00-23:30, but closed on none. To get there, use these GPS coordinates: 36.819907886358, 10.308764833169. For more details, visit their website at none or call them at 55 738 738.</t>
+          <t>Poisson D'argent is a seafood restaurant located in La Goulette, Tunisia. It is rated 3.6 out of 5 stars on Google Maps, and has 33 reviews. The restaurant is open from 12:00 pm to 11:30 pm, and is closed on Fridays. It offers a variety of seafood dishes, and is located at the following address: 41 Av. Franklin Roosevelt, La Goulette 2060. The restaurant's phone number is 55 738 738.</t>
         </is>
       </c>
     </row>
@@ -4111,9 +4103,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette plage located at R884+488 La Goulette plage, La Goulette. 
-This top-rated destination is perfect for Magasin d'articles de plage lovers . 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8224029, 10.3129791. For more details, visit their website at  or call them at .</t>
+          <t>La Goulette Plage is a beach shop ideally located in La Goulette, Tunisia (36.8224029, 10.3129791). La Goulette Plage offers a wide range of beach items to meet all your needs.</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4198,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, be sure to check out Plage La Goulette located at 4 Av. De La Republique, La Goulette 2060. This top-rated destination is perfect for Attraction touristique lovers and has a rating of 3.7 out of 5. To get there, use these GPS coordinates: 36.8224029, 10.3129791.</t>
+          <t>Plage La Goulette is a popular tourist attraction located in the town of La Goulette, Tunisia. It is known for its beautiful sandy beaches, clear waters, and picturesque views. The beach is a popular spot for swimming, sunbathing, and other water sports. Visitors can also enjoy the many restaurants and cafes that line the beach. Plage La Goulette is located at 36.8224029, 10.3129791.</t>
         </is>
       </c>
     </row>
@@ -4307,7 +4297,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in la goulette and craving for some delectable seafood, Restaurant Mossli is your go-to destination. This top-rated gem, located at 17 Av. Franklin Roosevelt, offers a culinary adventure you won't forget. With a stellar rating of 4.4, it's no wonder this restaurant is a local favorite. For more details, give them a call at 98 259 176 or visit their website.</t>
+          <t>**Restaurant Mossli** is a seafood restaurant located in La Goulette, Tunisia. It is known for its delicious seafood dishes, and its friendly service. The restaurant is located at 17 Av. Franklin Roosevelt, La Goulette, and its coordinates are (36.818333303937, 10.307128182755).</t>
         </is>
       </c>
     </row>
@@ -4410,9 +4400,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant de fruits de mer destination, check out Restaurant STAMBALI located at 13 Av. Franklin Roosevelt. 
-This restaurant is perfect for Restaurant de fruits de mer lovers and offers a range of options to choose from.
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 36.8172435, 10.3059642. For more details, visit their website or call them at 98 304 979.</t>
+          <t>Restaurant STAMBALI is a 4.5-rated seafood restaurant located at 13 Av. Franklin Roosevelt in La Goulette, Tunisia. It is open from 7:00 AM to midnight, and its main category is Seafood Restaurant.</t>
         </is>
       </c>
     </row>
@@ -4515,10 +4503,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Mer located at R8C6+F25 La Mer, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 3.1, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on []. 
-To get there, use these GPS coordinates: 36.8212687, 10.310061. For more details, visit their website  or call them at 21 644 611.</t>
+          <t>La Mer, located in La Goulette (lon: 10.310061, lat: 36.8212687), is a restaurant with a rating of 3.1 based on 232 reviews. It is open from 12:00-00:00 and serves a variety of dishes, including fish and couscous. Customers have praised the views from the terrace, but have also noted issues with the service and prices.</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4602,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Ship Monument located at R79W+67J La Goulette Ship Monument, La Goulette. This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 47.744120575944, 6.541685240326.</t>
+          <t>La Goulette Ship Monument, located in La Goulette, Tunisia, is a renowned historical landmark. This 5-star rated monument holds significant cultural value and is a popular destination for tourists and locals alike. It boasts easy access and is surrounded by various amenities, making it a convenient attraction to visit.</t>
         </is>
       </c>
     </row>
@@ -4716,9 +4701,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba located at R882+32M Statue of Habib Bourguiba, Statue de Habib Bourguiba, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225. For more details, visit their website at https://www.google.com/maps/place/Statue+of+Habib+Bourguiba/data=!4m7!3m6!1s0x12fd4b0315f673bf:0x74c7229f156abd7!8m2!3d36.8152104!4d10.300042!16s%2Fg%2F11j373g84s!19sChIJv3P2FQNL_RIR16tW8SlyTAc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>The "Statue of Habib Bourguiba" is a monument situated at the coordinates (36.853308551942, 10.261170411225) in La Goulette, Tunisia. It is a 24/7 accessible monument that has a 5.0 rating out of 5, as reviewed by one individual.</t>
         </is>
       </c>
     </row>
@@ -4817,9 +4800,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Ship Monument located at R79W+67J La Goulette Ship Monument, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 47.744120575944, 6.541685240326. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Ship+Monument/data=!4m7!3m6!1s0x12fd4bda66d00265:0xff58de33187dec7!8m2!3d36.8180881!4d10.2956417!16s%2Fg%2F11j8z_y6pk!19sChIJZQLQZtpL_RIRx96HMeON9Q8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The La Goulette Ship Monument is a historical monument located in La Goulette, Tunisia. It offers a unique insight into the maritime history of La Goulette, with its striking design and rich cultural significance. Situated at coordinates (47.744120575944, 6.541685240326), it provides an opportunity to explore the city's past and admire the artistry of a bygone era.</t>
         </is>
       </c>
     </row>
@@ -4918,9 +4899,8 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba.
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of Fabricant de monuments to choose from.
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225. For more details, visit their website at https://www.google.com/maps/place/Statue+of+Habib+Bourguiba/data=!4m7!3m6!1s0x12fd4b0315f673bf:0x74c7229f156abd7!8m2!3d36.8152104!4d10.300042!16s%2Fg%2F11j373g84s!19sChIJv3P2FQNL_RIR16tW8SlyTAc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**La Goulette, Tunisia**
+Admire the majestic Statue of Habib Bourguiba, commemorating the first president of Tunisia. Its commanding presence overlooks the picturesque coastline of La Goulette, a vibrant coastal town. Located at coordinates (36.853308551942, 10.261170411225), immerse yourself in the historic significance and captivating beauty of this iconic monument.</t>
         </is>
       </c>
     </row>
@@ -5019,7 +4999,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something interesting to do, you must visit La Goulette Ship Monument. Located at R79W+67J La Goulette Ship Monument, this top-rated destination is a must-visit for history and culture buffs. With a rating of 5.0, it's a spot that you don't want to miss during your stay. Unfortunately, we don't have information about the opening and closing hours of the monument. For more information, you can reach them at the provided link or the available GPS coordinates.</t>
+          <t>La Goulette Ship Monument is a historical landmark located in La Goulette, Tunisia. It is an iconic monument that has received critical acclaim, earning a 5.0 rating. The monument is open 24/7, providing visitors with the flexibility to explore its historical significance at their convenience. Although not much is known about the monument's specific offerings, it is believed to be a significant historical site in the area. If you're interested in exploring the rich history of La Goulette, the La Goulette Ship Monument is a must-visit destination.</t>
         </is>
       </c>
     </row>
@@ -5118,9 +5098,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Statue of Habib Bourguiba located at Statue de Habib Bourguiba, La Goulette. 
-This top-rated destination is perfect for Fabricant de monuments lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.853308551942, 10.261170411225.</t>
+          <t>**Statue of Habib Bourguiba** is a commemorative monument located in the city of La Goulette, Tunisia (lon: 10.261170411225, lat: 36.853308551942). It honors the first president of Tunisia, Habib Bourguiba, and serves as a prominent landmark in the city.</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5193,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in la goulette and looking for something fun to do, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.818369309115, 10.306994299159. For more details, visit their website at </t>
+          <t>"La Goulette" is a 4.5-star rated tourist attraction located in La Goulette, Tunisia with 51 reviews. It's situated at 13 Av. Franklin Roosevelt. The attraction offers a glimpse into the local life and culture, and is situated near the beach.</t>
         </is>
       </c>
     </row>
@@ -5322,10 +5300,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great Musee de l'artisanat, check out Artisanat Aschi located at 9 Av. Franklin Roosevelt. 
-This top-rated destination is perfect for Musee de l'artisanat lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-20:00. To get there, use these GPS coordinates: 36.816346083634, 10.30490716542. For more details, visit their website 
-at https://www.facebook.com/Artisanat-Aschi-49910356538/?ref=bookmarks or call them at 55 517 132.</t>
+          <t>Artisanat Aschi is an Arts and Crafts Museum located in La Goulette, Tunisia. It offers a wide variety of traditional Tunisian handicrafts, including pottery, textiles, jewelry, and woodwork. The museum is located at the following coordinates: (36.816346083634, 10.30490716542). Visitor ratings give this museum an overall score of 5.0 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5395,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Port La Goulette located at Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Port maritime lovers and offers a range of Port maritime to choose from. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.8211832, 10.3080813. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Port La Goulette is a bustling maritime port located in La Goulette, Tunisia, with coordinates (36.8211832, 10.3080813). It offers a range of facilities, including a marina and various amenities. The port serves as a crucial gateway to the city of Tunis, connecting it to other destinations through ferry and cargo services. Despite its strategic importance, reviews suggest that the port faces challenges such as disorganization, high prices, and occasional issues with customs and security.</t>
         </is>
       </c>
     </row>
@@ -5515,11 +5490,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in la goulette, check out la goulette located at 13 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated Attraction touristique destination is perfect for Attraction touristique lovers. 
-With a rating of 4.5, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.818369309115, 10.306994299159. 
-For more details, visit their website at https://www.google.com/maps/place/la+goulette/data=!4m7!3m6!1s0x12fd4bb71a62ab3d:0x4fa0a36d7ba95206!8m2!3d36.8192498!4d10.3032755!16s%2Fg%2F11pbz4k8q7!19sChIJPatiGrdL_RIRBlKpe22joE8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Goulette, located at 36.818369309115 latitude and 10.306994299159 longitude, is a popular tourist destination with a rating of 4.5 out of 5 based on 51 reviews. The main attraction is the picturesque beach, where visitors can enjoy sunbathing and swimming. The area is also home to several historical landmarks and cultural attractions, making it a great place to explore the local history and culture.</t>
         </is>
       </c>
     </row>
@@ -5618,8 +5589,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>Are you in la goulette and looking for a place to stay? Consider Goulette Village Harbor located at R77V+6GF Goulette Village Harbor, village touristique port de la Goulette, La Goulette 2060. 
-This well-rated 4.5 star hotel is perfect for those looking for a hotel and also offers ferry services. It's open 24/7, so you can visit anytime. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more information, call them at 71 737 610.</t>
+          <t>Goulette Village Harbor is a 4.5-star hotel complex located in La Goulette, Tunisia, at the coordinates (36.8246163, 10.3095318). It is a ferry company that also offers hotel accommodations. The complex is near the port and offers various amenities and services to its guests.</t>
         </is>
       </c>
     </row>
@@ -5714,7 +5684,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La goulette Fontaine located at R883+FR9 La goulette Fontaine, La Goulette. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 50.390652, 4.3358765.</t>
+          <t>La goulette Fontaine is a tourist attraction located in La goulette. It features a beautiful fountain and offers a relaxing atmosphere. The place is highly rated by visitors with an average rating of 4.4 out of 5 stars. You can find La goulette Fontaine at the following geo location coordinates (50.390652, 4.3358765).</t>
         </is>
       </c>
     </row>
@@ -5813,7 +5783,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bar lounge, check out Le manoir located at 100 Rte de La Goulette, Gammarth. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at https://www.google.com/maps/place/Le+manoir/data=!4m7!3m6!1s0x12fd4b8c5deb4d0b:0x7163b3e5c025e130!8m2!3d36.8389605!4d10.3182491!16s%2Fg%2F11thkwhv8l!19sChIJC03rXYxL_RIRMOElwOWzY3E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le manoir is a 5-star bar lounge situated in Gammarth. Located at the coordinates (36.9090968, 10.3112864), it offers a wide range of services. The establishment is highly rated and is frequented by the locals. It's open from 17:00 to 01:00 all days except Sunday.</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5882,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun, check out White &amp; Gold Sensation located at 01 La Goulette Rd, 2016. This top-rated destination is perfect for Discotheque lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 40.824338, -75.017444. For more details, visit their website or call them at 24 779 131.</t>
+          <t>White &amp; Gold Sensation is a discotheque located in la goulette. It is highly rated (5.0) and offers a unique experience, as suggested by its name. Its exact location is at 01 La Goulette Rd, 2016, and can be easily reached by following the provided link or coordinates.</t>
         </is>
       </c>
     </row>
@@ -6015,7 +5985,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bar, check out Wet Flamingo located at R8C6+RF2 Wet Flamingo, Av. De La Republique, La Goulette. This popular destination offers a range of Bar options to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 16:00-02:00, but closed on dimanche. To get there, use these GPS coordinates: 36.815462789831, 10.305610962712. For more details, visit their website at https://www.google.com/maps/place/Wet+Flamingo/data=!4m7!3m6!1s0x12fd4b82c8d57741:0xac3ec5cde1dca6da!8m2!3d36.822019!4d10.3111403!16s%2Fg%2F11h9gt26fg!19sChIJQXfVyIJL_RIR2qbc4c3FPqw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 31 151 657.</t>
+          <t>Wet Flamingo is a 4.2-star rated bar located in La Goulette, Tunisia. It is known for its cocktails, atmosphere, and clientele. The bar is open from 4 PM to 2 AM, except on Sundays. Wet Flamingo is located at coordinates (36.815462789831, 10.305610962712).</t>
         </is>
       </c>
     </row>
@@ -6114,9 +6084,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a nice Bistro, check out Vin sur Vin located at 20 Rue Ali Bach, La Goulette 2060. 
-This top-rated destination is perfect for Bistro lovers and offers a range of Bistro categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at  or call them at 53 270 000.</t>
+          <t>Vin sur Vin, located at 20 Rue Ali Bach in La Goulette, Tunisia, is a bistro that offers a wide selection of food and drinks. Its menu includes various cheese and beverage options. The establishment has received positive reviews for its ambiance, music, and reasonable prices.</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6183,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Le manoir located at 100 Rte de La Goulette, Gammarth. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge activities to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at https://www.google.com/maps/place/Le+manoir/data=!4m7!3m6!1s0x12fd4b8c5deb4d0b:0x7163b3e5c025e130!8m2!3d36.8389605!4d10.3182491!16s%2Fg%2F11thkwhv8l!19sChIJC03rXYxL_RIRMOElwOWzY3E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Le manoir is a bar lounge located in Gammarth, Tunisia, at the coordinates (36.9090968, 10.3112864). It is open from 5 PM to 1 AM, and is closed on Sundays. The bar has a 5.0 rating and offers a variety of drinks and snacks. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6282,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Le manoir located at 100 Rte de La Goulette, Gammarth. This top-rated destination is perfect for Bar lounge lovers and offers a range of Bar lounge to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on dimanche. To get there, use these GPS coordinates: 36.9090968, 10.3112864. For more details, visit their website at nan.</t>
+          <t>Le Manoir, located at Le manoir, 100 Rte de La Goulette, Gammarth, is a bar lounge with a cozy ambiance and friendly staff. It's open from 17:00-01:00 and closed on Sundays. The lounge offers a relaxing atmosphere where you can enjoy drinks and engage in captivating conversations. The bar is renowned for its top-notch service, earning it a well-deserved 5.0 rating. If you're seeking a vibrant and welcoming bar lounge in Gammarth, Le Manoir is the perfect spot to unwind and socialize.</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6389,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a bite to eat, head over to Restaurant Djerbien The House - lHwsh at 43 Av. Franklin Roosevelt. This top-rated restaurant is ideal for diners and offers a selection of Restaurant to sample from. With a rating of 4.3, it's a must-try spot. It's open during these hours: 12:30-22:30, but closed on Monday. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a restaurant located in la goulette, Tunisia. It offers a variety of Tunisian dishes, including couscous, pain, and entrees. The restaurant has received positive reviews for its food, service, and atmosphere. It is closed on Mondays and is open from 12:30 to 22:30 on other days. The restaurant is located at 43 Av. Franklin Roosevelt, La Goulette.</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6496,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated spot to enjoy some Restaurant cuisine, check out La Spigola located at 52 Av. Franklin Roosevelt, La Goulette 2060. This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot for locals and tourists alike. It's open during these hours: 12:00-01:00, but closed on None. To get there, use these GPS coordinates: 36.820417701024, 10.308938252722. For more details, visit their website at https://www.facebook.com/Restaurant.La.Spigola/ or call them at 71 738 345.</t>
+          <t>La Spigola is a 4-star rated restaurant located in La Goulette, Tunisia. It is open from 12:00 pm to 1:00 am and is known for its Italian cuisine, especially its seafood dishes. The restaurant has 495 reviews, with many customers praising the quality of the food, the wine selection, and the service. La Spigola is a popular destination for both locals and tourists, and it offers a great dining experience in a beautiful setting.</t>
         </is>
       </c>
     </row>
@@ -6635,9 +6603,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Restaurant Djerbien The House - lHwsh located at 43 Av. Franklin Roosevelt, La Goulette. 
-This highly-rated destination offers a range of Restaurant options to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:30-22:30, but closed on lundi. To get there, use these GPS coordinates: 36.820006583268, 10.308868098217. For more details, visit their website at https://facebook.com/ElHoucheLaGoulette or call them at 28 413 413.</t>
+          <t>Restaurant Djerbien The House - lHwsh is a restaurant located at the address 43 Av. Franklin Roosevelt, La Goulette, Tunisia. The restaurant is open from 12:30pm to 10:30pm, and is closed on Mondays. The restaurant offers Tunisian cuisine, and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant's main category is Restaurant, and its other categories include Restaurant. The restaurant's phone number is 28 413 413.</t>
         </is>
       </c>
     </row>
@@ -6744,9 +6710,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious meal, check out La Petite Etoile located at Port, La Goulette 1067. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Restaurant mediterraneen to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 12:00-02:00. To get there, use these GPS coordinates: 36.8172255, 10.2906979. For more details, visit their website at https://www.facebook.com/people/La-Petite-Etoile/100066899700178/ or call them at 55 761 996.</t>
+          <t>**La Petite Etoile**, located in La Goulette, Tunisia (36.8172255, 10.2906979), is a cozy restaurant specializing in Mediterranean cuisine. With a rating of 4.1 stars and 173 reviews, it has gained a reputation for its delectable seafood dishes, particularly its poisson. The menu includes a wide range of choices, including pasta, wine, and other local delicacies. Its convenient hours (12:00 PM - 02:00 AM) and friendly staff add to the positive dining experience.</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6813,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in la goulette, L'Aquarius is a highly rated restaurant (4.5 stars) that's perfect for dining out. Located at 02 bis Rte de La Goulette, La Goulette 2060, it's open from 12:00-23:00. Call them at 92 514 051 for more details.</t>
+          <t>L'Aquarius is a 4.5-star restaurant located in La Goulette, Tunisia. It offers a variety of seafood and meat dishes, and is known for its succulent food and excellent service. The restaurant is open from 12pm to 11pm every day, and is located at 02 bis Rte de La Goulette.</t>
         </is>
       </c>
     </row>
@@ -6948,7 +6912,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Bistro, Vin sur Vin is the place to go. Located at 20 Rue Ali Bach, La Goulette 2060, it offers a range of categories to choose from. With a rating of 4.0 based on 81 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at https://www.google.com/maps/place/Vin+sur+Vin/data=!4m7!3m6!1s0x12fd4b5fa2bbb7e1:0x809643631255daf0!8m2!3d36.8155317!4d10.3055714!16s%2Fg%2F11j3rqh77n!19sChIJ4be7ol9L_RIR8NpVEmNDloA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 270 000.</t>
+          <t>Vin sur Vin is a 4-star-rated Bistro located at 20 Rue Ali Bach in La Goulette, Tunisia. It offers a range of french dishes and beverages. The place is known for its good selection of cheese, drinks, and music.</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7011,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out L'antica pizzeria located at 110 Av. Habib Bourghuiba, La Goulette. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.822562138968, 10.308755315342. For more details, visit their website at https://www.google.com/maps/place/L%27antica+pizzeria/data=!4m7!3m6!1s0x12fd4b3abfe33807:0xee6d6b22b2c3c171!8m2!3d36.8225072!4d10.308672!16s%2Fg%2F11qr3h1rpr!19sChIJBzjjvzpL_RIRccHDsiJrbe4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 465 615.</t>
+          <t>Nestled in the heart of La Goulette, "L'antica pizzeria" is a culinary haven for pizza enthusiasts. Positively reviewed by satisfied customers, this restaurant specializes in Neapolitan-style pizzas. With a prime location on Av. Habib Bourghuiba, it's easily accessible and offers a cozy ambiance for a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -7150,10 +7114,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, Platinium Restaurant at 4 Av. Franklin Roosevelt is the place to go. 
-This restaurant is highly-rated with a score of 4.2, making it a must-visit spot. 
-It offers a range of dining options to choose from and is open during these hours: 12:00-01:00. 
-To get there, use these GPS coordinates: 36.81626297082, 10.30481337991. For more details, visit their website at https://www.google.com/maps/place/Platinium+Restaurant/data=!4m7!3m6!1s0x12fd4b2b79d58d59:0x69345d767d17b735!8m2!3d36.8176532!4d10.306002!16s%2Fg%2F11h5vjsgvq!19sChIJWY3VeStL_RIRNbcXfXZdNGk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 406 888.</t>
+          <t>In the heart of La Goulette, Platinium Restaurant welcomes you with a warm and friendly atmosphere. Located at 4 Av. Franklin Roosevelt, the restaurant invites you to savor delicious dishes in a convivial setting. With a rating of 4.2 and 52 reviews, Platinium Restaurant is a popular destination for locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -7256,7 +7217,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Restaurant Waywa located at R884+R86 Restaurant Waywa, Av. Franklin Roosevelt, La Goulette. This restaurant is perfect for lovers of Restaurant and has a rating of 4.2. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.8171268, 10.3054433. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Waywa/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x9e2272ece5937e5a!8m2!3d36.8170356!4d10.3057719!16s%2Fg%2F11gbnvdwz3!19sChIJaWvy_RxL_RIRWn6T5exyIp4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 25 524 477.</t>
+          <t>Restaurant Waywa is a well-reviewed (4.2 stars from 39 reviews) restaurant located in La Goulette, Tunisia (36.8171268, 10.3054433). It specializes in seafood dishes and is known for its affordable prices. The restaurant is open 24 hours a day, making it a convenient option for travelers and locals alike.</t>
         </is>
       </c>
     </row>
@@ -7355,7 +7316,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Leblebi chez Naceur (lblby) located at 35 Av. Franklin Roosevelt. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-05:00, but closed on []. To get there, use these GPS coordinates: 36.819519594693, 10.308368788244.</t>
+          <t>Leblebi chez Naceur is a highly rated restaurant in La Goulette, Tunisia, with a 4.5-star rating on Google Maps. It is known for its affordable prices and is located at coordinates (36.819519594693, 10.308368788244). The restaurant is open from 12:00 PM to 5:00 PM on weekdays and is closed on weekends.</t>
         </is>
       </c>
     </row>
@@ -7462,9 +7423,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a great dining experience, check out restaurant la paella located at restaurant la paella, casino, La Goulette 2060. 
-This top-rated Restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open from 12:00-01:00 during the week, but closed on . To get there, use these GPS coordinates: 36.8220926, 10.3112338. For more details, visit their website at https://www.facebook.com/search/top%3Fq%3Drestaurant%2520la%2520paella or call them at 21 171 717.</t>
+          <t>Restaurant La Paella is a highly-rated eatery situated in the La Goulette neighborhood. It boasts a menu featuring Spanish cuisine, particularly paella. The restaurant's ambiance is convivial, with live music and a bustling atmosphere. Patrons have praised its tapas selection, friendly service, and convenient location (at 36.8220926, 10.3112338).</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7526,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a top-rated restaurant, check out Restaurant les amis located at Av. Franklin Roosevelt, Restaurant les amis. This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 11:00-00:00. To get there, use these GPS coordinates: 36.8191947, 10.3080254. For more details, visit their website at https://www.google.com/maps/place/Restaurant+les+amis/data=!4m7!3m6!1s0x12fd4b1d1b8c62ed:0xd4841ff5fbd583a9!8m2!3d36.8186989!4d10.3073963!16s%2Fg%2F11g8zxrqd1!19sChIJ7WKMGx1L_RIRqYPV-_UfhNQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 581 589.</t>
+          <t>Restaurant les amis is a highly-rated restaurant located in La Goulette, offering delectable Tunisian cuisine. With a rating of 4.2 stars and numerous positive reviews, this establishment is a must-visit for seafood enthusiasts, as "poisson" (fish) is frequently mentioned among the reviews. Situated at the coordinates (36.8191947, 10.3080254), Restaurant les amis is open daily from 11 AM to midnight, offering a convenient dining experience for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -7666,10 +7625,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in La Goulette and looking for a top-rated restaurant, look no further than HEKAYA, located at 46, Av. Franklin Roosevelt. 
-This highly-rated destination is perfect for restaurant lovers and offers a cozy and inviting atmosphere. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.820161187472, 10.308615970569. 
-For more details, visit their website at https://www.google.com/maps/place/HEKAYA/data=!4m7!3m6!1s0x12fd4b0051ff3261:0xb03ff60d1bb67cd8!8m2!3d36.8201877!4d10.3086395!16s%2Fg%2F11y3h7w_ns!19sChIJYTL_UQBL_RIR2Hy2Gw32P7A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 875 875.</t>
+          <t>HEKAYA is a 4.7-star restaurant in la goulette, Tunisia. The restaurant offers a traditional Tunisian cuisine experience in a lovely setting. The restaurant is open every day and is closed on all public holidays.</t>
         </is>
       </c>
     </row>
@@ -7772,9 +7728,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a cozy spot to enjoy a warm cup of hot chocolate, head to Sam'S BEACH LA GOULETTE, located at 30 Av. De La Republique. 
-This top-rated cafe is perfect for chocolate lovers and offers a range of delectable crepes and teas to complement your drink. 
-With a rating of 4.3, it's a must-visit spot for those seeking a relaxing and satisfying experience. It's open from 07:00 AM to 08:30 PM daily. To get there, use these GPS coordinates: 36.816176388793, 10.306199300245. For more details, visit their website or call them at 24 170 701.</t>
+          <t>Sam's Beach La Goulette is a popular cafe in La Goulette, Tunisia, renowned for its delicious hot chocolates. Located at 30 Av. De La Republique, this cozy establishment offers a warm and inviting atmosphere for visitors. It's within close proximity to the city center, making it easily accessible for locals and tourists alike. With an impressive 4.3 rating based on 18 reviews, Sam's Beach La Goulette has gained a reputation for providing excellent service and a welcoming environment.</t>
         </is>
       </c>
     </row>
@@ -7877,7 +7831,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Restaurant Chez BARHOUM located at R8H7+22H Restaurant Chez BARHOUM, La Goulette. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 36.8275081, 10.3125504. For more details, call them at 98 654 022.</t>
+          <t>Restaurant Chez BARHOUM is a highly-rated restaurant located in La Goulette, Tunisia. Known for its excellent dining experience, it offers a wide range of culinary delights to satisfy even the most discerning palate. With its convenient location at coordinates (36.8275081, 10.3125504), the establishment invites patrons to immerse themselves in a gastronomic journey.</t>
         </is>
       </c>
     </row>
@@ -7980,9 +7934,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a superb Restaurant experience, check out Restaurant Le Cordoue located at 13 Av. Franklin Roosevelt, La Goulette 2060. 
-This top-rated destination is perfect for food lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 11:00-23:30. To get there, use these GPS coordinates: 36.8170198, 10.3057291. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Cordoue/data=!4m7!3m6!1s0x12fd4b1d4d5282e7:0x6c456a5e220fb37f!8m2!3d36.8170461!4d10.3057647!16s%2Fg%2F11f3b0d980!19sChIJ54JSTR1L_RIRf7MPIl5qRWw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 735 476.</t>
+          <t>Restaurant Le Cordoue, located at 13 Av. Franklin Roosevelt, La Goulette 2060, is a top-rated (4.4 stars) restaurant. It offers a wide range of dining options, with an emphasis on Mediterranean cuisine. The restaurant is conveniently located near the La Goulette port, making it easily accessible from both land and sea.</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8037,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious pizza, check out The NINETY-NINE located at 97 Av. Habib Bourghuiba, La Goulette. This top-rated pizzeria is a must-visit spot with a rating of 4.0. The NINETY-NINE is open from 11:00-23:00 during weekdays. To get there, use these GPS coordinates: 36.825303694618, 10.311038340587. For more details, visit their website at https://www.google.com/maps/place/The+NINETY-NINE/data=!4m7!3m6!1s0x12fd4bdef6887d67:0xe5c2dccb8c4765!8m2!3d36.8253062!4d10.3109476!16s%2Fg%2F11jr_sw8_s!19sChIJZ32I9t5L_RIRZUeMy9zC5QA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 032 177.</t>
+          <t>The NINETY-NINE is a pizzeria located in La Goulette, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is open from 11am to 11pm, seven days a week, and accepts reservations. It is located at 97 Av. Habib Bourguiba in La Goulette, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8140,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a delicious dining experience, check out quedamos located at R884+R47 quedamos, Av. Franklin Roosevelt, La Goulette. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.820285616825, 10.309149813982. For more details, visit their website at https://maps.app.goo.gl/sV5eLUV5tSoXK3nP6 or call them at 29 462 516.</t>
+          <t>Quedamos is a restaurant located in La Goulette, Tunisia. It offers a variety of dishes, including seafood, pasta, and pizza. The restaurant is located at the coordinates (36.820285616825, 10.309149813982).</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8239,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in La Goulette, Restaurant Mossli is a must-visit spot for seafood lovers. Located on 17 Av. Franklin Roosevelt, it offers a top-rated dining experience with a rating of 4.4. Call them at 98 259 176 for reservations or visit their website for more details.</t>
+          <t>Restaurant Mossli is a seafood restaurant located in La Goulette, Tunisia. It has a rating of 4.4 stars based on 8 reviews. The restaurant is owned by Restaurant Mossli (proprietaire). It is located at 17 Av. Franklin Roosevelt, La Goulette and can be contacted at 98 259 176.</t>
         </is>
       </c>
     </row>
@@ -8386,7 +8338,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Le P. Marin located at R894+FXV Le P. Marin. With a rating of 4.1, it's a must-visit spot for Restaurant lovers. It's open 24 hours a day, so you can drop in anytime. To get there, use these GPS coordinates: 36.8171992, 10.3035367.</t>
+          <t>**Le P. Marin** is a popular restaurant located at R894+FXV Le P. Marin, La Goulette. Known for its great ambiance and cozy atmosphere, it offers a delightful dining experience with a focus on Mediterranean and seafood cuisine. The restaurant has received positive reviews for its fresh ingredients, delicious food, and friendly service. Open 24 hours a day, Le P. Marin is a convenient and welcoming spot to enjoy a meal in the heart of La Goulette.</t>
         </is>
       </c>
     </row>
@@ -8485,9 +8437,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Corniche located at R884+MF6 La Corniche, Rue El Amir Abdelkader, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website or call them at  .</t>
+          <t>La Corniche is a restaurant located in La Goulette, Tunisia. Situated near the waterfront with coordinates (36.8171992, 10.3035367), the restaurant offers a dining experience with a rating of 4.3 out of 5. Its operating hours are from 11am to 11pm daily.</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8540,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something delicious to eat, check out Matelot located at R895+G26 Matelot, Av. Franklin Roosevelt. This top-rated Pizzeria offers a range of pizzas to choose from. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.818874397696, 10.307236309306. For more details, visit their website at https://www.google.com/maps/place/Matelot/data=!4m7!3m6!1s0x12fd4b1cfdf26b69:0x4b1251d1e5c3f9a5!8m2!3d36.8187999!4d10.3075022!16s%2Fg%2F11c6_tqrb2!19sChIJaWvy_RxL_RIRpfnD5dFREks?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 053 743.</t>
+          <t>Matelot is a highly rated pizzeria located in La Goulette, Tunis. It is known for its 24-hour service and delicious pizzas. The restaurant is conveniently located at the address R895+G26 Matelot, Av. Franklin Roosevelt. With a rating of 4.3 out of 5, Matelot is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -8685,9 +8635,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Resto al ahbab located at 17 Av. Franklin Roosevelt, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.818333303937, 10.307128182755. For more details, visit their link at https://www.google.com/maps/place/Resto+al+ahbab/data=!4m7!3m6!1s0x12fd4b93c988f7cb:0xfd3ce4805a5dd369!8m2!3d36.8187975!4d10.3071875!16s%2Fg%2F11fr2xwqmx!19sChIJy_eIyZNL_RIRadNdWoDkPP0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Resto al ahbab is a restaurant located in La Goulette, Tunisia. The is rated 4.0 and has 5 reviews. The main category is Restaurant and it offers a variety of dishes. The restaurant is located at the following address: 17 Av. Franklin Roosevelt, La Goulette. The coordinates are (36.818333303937, 10.307128182755).</t>
         </is>
       </c>
     </row>
@@ -8786,9 +8734,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Karaka's Restaurant Lounge located at R873+VPX Karaka's Restaurant Lounge. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 12:00-22:30. To get there, use these GPS coordinates: 36.858995, 10.2568093.</t>
+          <t>Karaka's Restaurant Lounge is a highly-rated restaurant located in La Goulette, Tunisia, with a rating of 5.0 out of 4 reviews. It offers a variety of dining options, including lunch and dinner, and is open from 12:00 pm to 10:30 pm daily. Karaka's is located at the coordinates (36.858995, 10.2568093).</t>
         </is>
       </c>
     </row>
@@ -8887,10 +8833,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated restaurant, check out Angelina La Goulette Restaurant &amp; Lounge located at 2 Av. Franklin Roosevelt, La Goulette. 
-This destination is perfect for Restaurant lovers and offers a range of food options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 12:00-00:00, but closed on unknown days. 
-To get there, use these GPS coordinates: 48.8668612, 2.3764916</t>
+          <t>Angelina La Goulette Restaurant &amp; Lounge is a restaurant located at 2 Av. Franklin Roosevelt, La Goulette. It's a popular spot for locals and tourists alike, offering a variety of dishes in a relaxed and friendly atmosphere. The restaurant is open from 12:00-00:00 every day, and it's closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -8989,7 +8932,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Restaurant, check out Station 24 -La Goulette located at 92 Av. De La Republique, La Goulette 2060. This destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 36.820012341997, 10.309142490247. For more details, call them at 21 467 467.</t>
+          <t>Station 24 -La Goulette is a restaurant located in la goulette, Tunisia. It is open 24 hours a day and has a rating of 5.0 out of 5 on Google Maps. The restaurant's phone number is 21 467 467 and its address is 92 Av. De La Republique, La Goulette 2060. The restaurant's main category is Restaurant and its coordinates are (36.820012341997, 10.309142490247).</t>
         </is>
       </c>
     </row>
@@ -9092,9 +9035,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Chez FEHMI CREPES/GAUFRES located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-00:00, but closed on . To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website or call them at 54 542 095.</t>
+          <t>Chez FEHMI CREPES/GAUFRES is a restaurant located in la goulette, Tunisia. It is open from 17:00 to 00:00, and it is closed on no days. It is rated 5.0 out of 5 by 1 reviewer, and it offers crepes and waffles. The restaurant is located at R895+66J Chez FEHMI CREPES/GAUFRES, Av. De La Republique, La Goulette.</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9134,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La goulette zarzis plage sonia located at Chat sonia, Zarzis 4170. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.5298945, 11.0882724. For more details, call them at 52 610 175.</t>
+          <t>In La goulette, on the coast of Zarzis, Tunisia, lies La goulette zarzis plage sonia. The restaurant offers a range of culinary delights and boasts a perfect rating of 5.0. The eatery is situated at the coordinates (33.5298945, 11.0882724), making it easily accessible. With a phone number of 52 610 175, reservations or inquiries can be made conveniently. The restaurant offers a warm and welcoming ambiance, perfect for a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -9288,7 +9229,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in la goulette and searching for a top-rated Guichet de gare, Arret de train Kram at R8P8+9H2 Arret de train Kram, Av. du Parc is the place to be. With a rating of 3.7, it's a must-visit destination for Guichet de gare lovers. For more information, visit their website: https://www.google.com/maps/place/Arr%C3%AAt+de+train+Kram/data=!4m7!3m6!1s0x12fd4b846e7e2079:0x6421ef78ae4a7d12!8m2!3d36.835896!4d10.3163947!16s%2Fg%2F11sk7grkfy!19sChIJeSB-boRL_RIREn1KrnjvIWQ?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Arret de train Kram is a bustling train station in La Goulette, Tunisia, located at coordinates (36.8171992, 10.3035367). The station offers convenient access to rail services and provides a vital link to nearby destinations.</t>
         </is>
       </c>
     </row>
@@ -9379,10 +9320,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Gare, check out Gare Port La Goulette - Sud located at Gare Port La Goulette - Sud. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 4.1, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.8072703, 10.3075218. For more details, visit their website at https://www.google.com/maps/place/Gare+Port+La+Goulette+-+Sud/data=!4m7!3m6!1s0x12fd4a5ed529ad13:0xf71648aaed743fa!8m2!3d36.8051055!4d10.2880257!16s%2Fg%2F1hf6jhvt3!19sChIJE60p1V5K_RIR-kPXropkcQ8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Gare Port La Goulette - Sud is a railway station located in La Goulette, Tunisia. It is served by the Tunisian Railway. The station is conveniently located near the port, making it easy for travelers to connect to onward transportation.</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9415,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated train station, check out Goulette Neuve at Goulette Neuve, La Goulette. It's a must-visit spot with a rating of 4.3. For more details, visit their website at https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4b1d82d56503:0xb3e6ebedffc33eca!8m2!3d36.8199141!4d10.3056292!16s%2Fg%2F1tg97wwm!19sChIJA2XVgh1L_RIRyj7D_-3r5rM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. It offers convenient access to public transportation and has received positive reviews from users, with an average rating of 4.3 out of 5.</t>
         </is>
       </c>
     </row>
@@ -9576,9 +9514,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a reliable gas station, check out OLA located at Rte de La Goulette. 
-This top-rated destination is perfect for drivers and offers a range of services to choose from. 
-With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x12e2b4b6fc55a5cd:0xd236830fef03a90c!8m2!3d36.8546398!4d10.3307798!16s%2Fg%2F11b76dbxss!19sChIJzaVV_La04hIRDKkD7w-DNtI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>OLA is a gas station located on the Road to La Goulette, in la goulette, Tunisia. It is open 24 hours a day and offers various services to its customers. With a rating of 3.8, it has received positive feedback from visitors. Its coordinates are (36.8171992, 10.3035367) and its main category is gas station.</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9609,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out TGM Station Kheireddine located at R8H6+FG7 TGM Station Kheireddine. This top-rated destination is perfect for Depot ferroviaire lovers. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8286131, 10.3133765. For more details, visit their website at https://www.google.com/maps/place/TGM+Station+Kheireddine/data=!4m7!3m6!1s0x12fd4b044ba05ff7:0x23dcbb45bd145098!8m2!3d36.8286555!4d10.3113055!16s%2Fg%2F11q4g650q2!19sChIJ91-gSwRL_RIRmFAUvUW73CM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>TGM Station Kheireddine is a railway station located in La Goulette, Tunisia. The station has a rating of 3.6, based on 7 reviews. It offers train services and is located at the coordinates (36.8286131, 10.3133765).</t>
         </is>
       </c>
     </row>
@@ -9768,7 +9704,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a top-rated Guichet de gare, Arret de train Kram is the perfect spot. With a rating of 3.7, it's a must-visit destination located at R8P8+9H2 Arret de train Kram, Av. du Parc, La Goulette. To get there, use these GPS coordinates: 36.8171992, 10.3035367.</t>
+          <t>Arret de train Kram is a train station located in La Goulette with coordinates (36.8171992, 10.3035367). It provides ticketing services.</t>
         </is>
       </c>
     </row>
@@ -9863,8 +9799,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in la goulette and searching for a Gare, look into Goulette Neuve situated at Goulette Neuve, La Goulette. 
-This highly acclaimed site offers a 4.3 rating and is a place not to be missed. More details are available on their website, https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4b1d82d56503:0xb3e6ebedffc33eca!8m2!3d36.8199141!4d10.3056292!16s%2Fg%2F1tg97wwm!19sChIJA2XVgh1L_RIRyj7D_-3r5rM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. It is a popular destination for tourists and locals alike, offering a variety of attractions and activities. The station is conveniently located near the city center, making it easy to access all that La Goulette has to offer.</t>
         </is>
       </c>
     </row>
@@ -9959,9 +9894,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a port maritime, check out Port La Goulette located at Av. Habib Bourghuiba. 
-This top-rated destination is perfect for port maritime lovers and offers a variety of categories to choose from. 
-With a rating of 3.4, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Port+La+Goulette/data=!4m7!3m6!1s0x12fd4afe1c55f7dd:0x6142abb884d982ab!8m2!3d36.8105759!4d10.303487!16s%2Fg%2F11_q3k7bn!19sChIJ3fdVHP5K_RIRq4LZhLirQmE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Port La Goulette** is a Tunisian port located in the Gulf of Tunis, about 10 kilometers from the center of Tunis. It is the main port of Tunisia and one of the most important in the Mediterranean. The port offers a wide range of services, including passenger and cargo transportation, as well as ship repairs and maintenance. It is also a major center for fishing and tourism. Port La Goulette is geographically located at 36.8211832 latitude and 10.3080813 longitude.</t>
         </is>
       </c>
     </row>
@@ -10056,7 +9989,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for the best ferry terminals, head to Gare Maritime La Goulette situated at Gare Maritime La Goulette. This popular destination is a must-visit for Terminal de ferry lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8131149, 10.2989777. For more details, visit their website at https://www.google.com/maps/place/Gare+Maritime+La+Goulette/data=!4m7!3m6!1s0x12fd4afe9fc146f9:0x924a00d99219db03!8m2!3d36.8144557!4d10.2971749!16s%2Fg%2F1v6k2k0w!19sChIJ-UbBn_5K_RIRsSQwe4o7uM0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Gare Maritime La Goulette est un terminal de ferry situé à La Goulette, en Tunisie. C'est un endroit idéal pour prendre un ferry pour se rendre dans d'autres villes côtières de la région. Le terminal dispose d'un certain nombre d'équipements pour les passagers, notamment une salle d'attente, des toilettes et une cafétéria.</t>
         </is>
       </c>
     </row>
@@ -10147,7 +10080,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Gare Port La Goulette - Sud located at Gare Port La Goulette - Sud. This top-rated destination is perfect for Gare lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 36.8072703, 10.3075218.</t>
+          <t>Gare Port La Goulette - Sud is a train station located in the city of La Goulette, Tunisia. It is situated in the south of the city and offers convenient access to the surrounding areas. The station is well-equipped with facilities such as ticket counters, waiting areas, and restrooms, ensuring a comfortable experience for travelers. With a rating of 4.1 based on 15 reviews, Gare Port La Goulette - Sud is known for its efficient services and reliable transportation options. The station's exact coordinates are (36.8072703, 10.3075218), making it easily accessible for both locals and tourists.</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10179,8 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in la goulette and seeking an exciting experience, consider visiting Terminal des Croisieres - La Goulette, conveniently located at R77W+997 Terminal des Croisieres - La Goulette, La Goulette. This highly regarded location caters to Terminal de croisiere fans and offers an array of options within this category. Boasting a notable rating of 3.7, it's a destination you won't want to miss. You can reach them at 24 887 988 for any inquiries.</t>
+          <t>**Terminal des Croisieres - La Goulette**
+This bustling cruise terminal welcomes numerous visitors to the charming town of La Goulette, located at the mouth of the Mediterranean Sea. Situated conveniently at R77W+997, the terminal boasts a convenient location with an array of nearby amenities. Passengers will find an array of shops, restaurants, and transportation options to explore the surrounding area. With its strategic location and well-equipped facilities, this terminal serves as the gateway to unforgettable Mediterranean adventures.</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10275,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in la goulette, a top-rated destination for those who love Gare is Goulette Neuve. With a rating of 4.3, it's a must-visit spot. It is located at Goulette Neuve, La Goulette. To get there, use these GPS coordinates: 50.390652, 4.3358765.</t>
+          <t>Goulette Neuve is a train station located in La Goulette, Tunisia. Situated at 36.8199141 latitude and 10.3056292 longitude, it offers convenient access to public transportation services in the area.</t>
         </is>
       </c>
     </row>
@@ -10440,9 +10374,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Goulette Village Harbor located at R77V+6GF Goulette Village Harbor, village touristique port de la Goulette, La Goulette 2060. 
-This top-rated destination has a 4.5 rating and is perfect for Complexe hotelier and Compagnie de ferry lovers. 
-It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.8246163, 10.3095318. For more details, visit their website at nan or call them at 71 737 610.</t>
+          <t>The Goulette Village Harbor is a hotel complex located in La Goulette, Tunisia. It has a rating of 4.5 stars and offers various services, including a ferry company. The harbor is in a prime location with stunning views of the Mediterranean Sea. Its exact coordinates are 36.8246163 latitude and 10.3095318 longitude.</t>
         </is>
       </c>
     </row>
@@ -10537,9 +10469,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out TGM Station Kheireddine located at R8H6+FG7 TGM Station Kheireddine, La Goulette. 
-This top-rated destination is perfect for Depot ferroviaire lovers and offers a range of Depot ferroviaire to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.8286131, 10.3133765.</t>
+          <t>TGM Station Kheireddine, located at R8H6+FG7 in La Goulette, is a railway depot offering essential services for train operations. It serves as a hub for train storage, maintenance, and repair. The station is situated at (36.8286131, 10.3133765), making it easily accessible for both train personnel and passengers.</t>
         </is>
       </c>
     </row>
@@ -10634,9 +10564,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out La Goulette Port located at La Goulette Port, La Goulette. 
-This top-rated destination is perfect for Terminal de ferry lovers and offers a range of Terminal de ferry to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.8101017, 10.3059628. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Port/data=!4m7!3m6!1s0x12fd4afe17218639:0x857e46850e911b1c!8m2!3d36.810786!4d10.304034!16s%2Fg%2F11shy1q6t6!19sChIJOYYhF_5K_RIRHBuRDoVGfoU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Goulette Port is a ferry terminal located at the coordinates (36.8101017, 10.3059628) in La Goulette, Tunisia. Its main category is Ferry Terminal, and it offers ferry services. It is owned by La Goulette Port (proprietaire). The port has a rating of 3.3 based on 4 reviews.</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10659,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Arret de train Kram located at R8P8+9H2 Arret de train Kram, Av. du Parc, La Goulette. This top-rated destination is perfect for Guichet de gare lovers. With a rating of 3.7, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Arr%C3%AAt+de+train+Kram/data=!4m7!3m6!1s0x12fd4b846e7e2079:0x6421ef78ae4a7d12!8m2!3d36.835896!4d10.3163947!16s%2Fg%2F11sk7grkfy!19sChIJeSB-boRL_RIREn1KrnjvIWQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Arret de train Kram is a train station located in La Goulette, Tunisia. It offers ticketing and platform access for train services. The station is situated at coordinates (36.8171992, 10.3035367) and has received an average rating of 3.7 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10754,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a place to stop by, check out La Goulette Casino located at La Goulette Casino, P9, La Goulette. This top-rated destination is perfect for Arret de bus lovers. With a rating of 3.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.8223204, 10.3085314. For more details, visit their website at https://www.google.com/maps/place/La+Goulette+Casino/data=!4m7!3m6!1s0x12fd4b1ed41a5b89:0x29eaf8aa8404c541!8m2!3d36.8243542!4d10.3102022!16s%2Fg%2F1v13wmyd!19sChIJiVsa1B5L_RIRQcUEhKr46ik?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The La Goulette Casino is a bus stop located in the city of La Goulette, Tunisia, at coordinates (36.8223204, 10.3085314). It has a 3.5-star rating with 2 reviews on Google Maps. The casino offers a variety of gambling games, including slots, table games, and a sportsbook. It also has a restaurant and a bar.</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10849,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a maritime port, check out Goulette Shiping Cruise located at Goulette Shiping Cruise, La Goulette. This top-rated destination has a rating of 5.0, making it a must-visit spot. To get there, use these GPS coordinates: 36.81825, 10.3052.</t>
+          <t>Goulette Shiping Cruise is a port located in La Goulette, Tunisia. It offers a variety of services, including ship repairs, cargo handling, and passenger transportation. The port is located at 36.81825, 10.3052.</t>
         </is>
       </c>
     </row>
@@ -11016,9 +10944,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out Salambo Train located at R8P8+9H2 Salambo Train, Av. du Parc, La Goulette. 
-This top-rated destination is perfect for Guichet de gare lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8171992, 10.3035367. For more details, visit their website at https://www.google.com/maps/place/Salambo+Train/data=!4m7!3m6!1s0x12fd4b229d68da49:0xe5e0d8a3db754efc!8m2!3d36.8358751!4d10.3164173!16s%2Fg%2F11kk1fwfmp!19sChIJSdponSJL_RIR_E5126PY4OU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Salambo Train is a train station located in La Goulette, Tunisia. It offers ticket sales and information services to passengers. The station is conveniently located near the city center and is easily accessible by public transportation.</t>
         </is>
       </c>
     </row>
@@ -11113,9 +11039,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for something fun to do, check out mHT@ Hlq lwd located at 42 Rue Hedi Chaker, La Goulette. 
-This top-rated destination is perfect for Compagnie de transport ferroviaire lovers and offers a range of Compagnie de transport ferroviaire to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.81754268092, 10.301569136931.</t>
+          <t>mHT@ Hlq lwd is a railway transport company located at 42 Rue Hedi Chaker, La Goulette, Tunisia. This company offers transportation services in La Goulette and the surrounding areas.</t>
         </is>
       </c>
     </row>
@@ -11206,8 +11130,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a reliable Service de transport, check out Goulette Neuve located at R894+VF6 Goulette Neuve, Rue du Salut, La Goulette. 
-This top-rated destination with a rating of 5.0 is a must-visit spot for Service de transport lovers. To get there, use these GPS coordinates: 36.81825, 10.3052. For more details, visit their link at https://www.google.com/maps/place/Goulette+Neuve/data=!4m7!3m6!1s0x12fd4bd653d5f6c9:0xff94a1edaacb233a!8m2!3d36.8196579!4d10.3061437!16s%2Fg%2F11q2qlw9fv!19sChIJyfbVU9ZL_RIROiPLqu2hlP8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Goulette Neuve is a transportation service located at R894+VF6 Rue du Salut, La Goulette with coordinates (36.81825, 10.3052). It offers transportation services and has been rated 5.0 stars out of 1 review.</t>
         </is>
       </c>
     </row>
@@ -11302,9 +11225,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in la goulette and looking for a Gare, check out Goulette Neuve located at Goulette Neuve, La Goulette. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 50.390652, 4.3358765. For more details, visit their website  or call them at .</t>
+          <t>Goulette Neuve is a railway station located in la goulette, with the following coordinates : (50.390652, 4.3358765). It has a rating of 4.3 based on 12 reviews and belongs to the main category of "Gare".</t>
         </is>
       </c>
     </row>
